--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -68,12 +68,6 @@
     <t>Спираль</t>
   </si>
   <si>
-    <t>RAD (кому?)</t>
-  </si>
-  <si>
-    <t>Инкректо?</t>
-  </si>
-  <si>
     <t>Использование</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>Достаточность ресурсов</t>
+  </si>
+  <si>
+    <t>Инкрементная</t>
+  </si>
+  <si>
+    <t>RAD</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,13 +550,13 @@
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
@@ -574,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -688,7 +688,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
         <f>SUM(E2:E33)</f>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="1">
-        <f t="shared" ref="E34:N34" si="6">SUM(G2:G33)</f>
+        <f t="shared" ref="F34:N34" si="6">SUM(G2:G33)</f>
         <v>6</v>
       </c>
       <c r="G34" s="8"/>
